--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1186110.337702337</v>
+        <v>1187098.030886826</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6231631.150429336</v>
+        <v>6287775.425770479</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13.00576294050474</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.7173798661024</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>144.3759709686855</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136.9013455552336</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>52.60348494601564</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>85.49838238928905</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>169.0708280266249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>51.12024601807692</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.94347069460057</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1266,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1412,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9129409668011</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,7 +1864,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1926,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>24.88156537268685</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>162.6349331877414</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>11.86372679529251</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>115.7580399383184</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.6890773381162</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,61 +2241,61 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2402,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>154.9075520657555</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
@@ -2570,10 +2572,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.0851035971169</v>
+        <v>115.6677505121453</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>4.122280040031055</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.41746221848938</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>139.0443297585467</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3347,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6032867115066</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>41.60546776660162</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>163.1212537939892</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>47.29627918133474</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>82.71243518046262</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>32.03583563884507</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>239.4925204373003</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>575.067534196224</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>575.067534196224</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>575.067534196224</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>415.8300791907684</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>269.2955212176533</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>575.067534196224</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>575.067534196224</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>575.067534196224</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="Y3" t="n">
-        <v>575.067534196224</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>466.1017926944764</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>466.1017926944764</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>466.1017926944764</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>466.1017926944764</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>459.1562919452729</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>443.6989813239244</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>604.3859801240053</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>604.3859801240053</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>466.1017926944764</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>466.1017926944764</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>626.8294255367553</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>809.472903150106</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>807.9870639201918</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>634.5697193708606</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>432.3831247296267</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>224.7893424687375</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>17.19556020784815</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>17.19556020784815</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.9018483060073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>609.8786756122688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>460.9442659510175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>301.706810945562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>155.1722529724469</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.9018483060073</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5503,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>938.9242611947909</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>938.9242611947909</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>938.9242611947909</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>938.9242611947909</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="W18" t="n">
-        <v>525.1925712235429</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="X18" t="n">
-        <v>317.3410710180102</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>703.7721529630483</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5694,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>941.9819777229218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>501.9060370580465</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>709.6663358230005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>709.6663358230005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>709.6663358230005</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>709.6663358230005</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>709.6663358230005</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>501.9060370580465</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>350.2064472052342</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C24" t="n">
-        <v>175.7534179241071</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D24" t="n">
-        <v>175.7534179241071</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>955.386757468614</v>
       </c>
       <c r="Y24" t="n">
-        <v>518.4217842253022</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6268,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>502.6601697108322</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6342,13 +6344,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.8755067309003</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,25 +6484,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
         <v>262.7299197543128</v>
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>754.0059980678517</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="C30" t="n">
-        <v>579.5529687867247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>922.2213350879197</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>922.2213350879197</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>922.2213350879197</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>922.2213350879197</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>922.2213350879197</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>922.2213350879197</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X30" t="n">
-        <v>922.2213350879197</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y30" t="n">
-        <v>922.2213350879197</v>
+        <v>191.6603993626354</v>
       </c>
     </row>
     <row r="31">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C33" t="n">
-        <v>318.9674160535941</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>318.9674160535941</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>159.7299610481386</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C36" t="n">
-        <v>178.4763822127447</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="D36" t="n">
-        <v>178.4763822127447</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7122,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>526.7184526376595</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>375.0280119908184</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>200.5749827096913</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>51.64057304844007</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>51.64057304844007</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>51.64057304844007</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>51.64057304844007</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>51.64057304844007</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>639.2227743377304</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>639.2227743377304</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>639.2227743377304</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>431.628992076841</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8221,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,16 +11144,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>269.7148239424616</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
-        <v>339.3481270698632</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,19 +23339,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>62.79555802151462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>91.57414009104109</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,7 +23752,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23814,16 +23816,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.27626877995628</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23868,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>89.06004997317822</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>138.0053911458572</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>50.77514371154889</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>19.99409376572166</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.73752838964549</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,10 +24347,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>197.1892911418754</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
@@ -24458,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.5975921801875</v>
+        <v>90.01494526515904</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>168.5862189482847</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>58.74037193415375</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,19 +24967,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.024882634837212</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25235,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04179374389434543</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>95.73804939660901</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25360,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>42.56144198331515</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25673,28 +25675,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>110.3488012740662</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>143.2289469005122</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,22 +25915,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>57.36079721257001</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955427.5761324902</v>
+        <v>948084.6446122433</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>955427.5761324902</v>
+        <v>957142.3053838729</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>955427.5761324903</v>
+        <v>957142.3053838729</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386710.2791637674</v>
+        <v>407331.8274820517</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386710.2791637675</v>
+        <v>407331.8274820519</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407331.8274820518</v>
+        <v>407331.8274820519</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407331.8274820518</v>
+        <v>407331.8274820519</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407331.8274820518</v>
+        <v>407331.8274820519</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386710.2791637675</v>
+        <v>407331.8274820517</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386710.2791637675</v>
+        <v>407331.8274820519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26350,10 +26352,10 @@
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641655</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320447.2707415524</v>
+        <v>354071.2011411577</v>
       </c>
       <c r="C4" t="n">
-        <v>320447.2707415523</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>320447.2707415524</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26454,10 +26456,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77706.99390008743</v>
+        <v>104265.4640008131</v>
       </c>
       <c r="C6" t="n">
-        <v>146580.7504817772</v>
+        <v>91698.14079603</v>
       </c>
       <c r="D6" t="n">
-        <v>146580.7504817774</v>
+        <v>152274.4629826981</v>
       </c>
       <c r="E6" t="n">
-        <v>152792.1707577127</v>
+        <v>159397.3251161461</v>
       </c>
       <c r="F6" t="n">
-        <v>152792.1707577127</v>
+        <v>159397.325116146</v>
       </c>
       <c r="G6" t="n">
-        <v>149668.2821419789</v>
+        <v>159397.325116146</v>
       </c>
       <c r="H6" t="n">
-        <v>159397.3251161461</v>
+        <v>159397.325116146</v>
       </c>
       <c r="I6" t="n">
         <v>159397.325116146</v>
       </c>
       <c r="J6" t="n">
-        <v>105624.8142259366</v>
+        <v>145396.0929758667</v>
       </c>
       <c r="K6" t="n">
-        <v>159397.325116146</v>
+        <v>111140.3721825134</v>
       </c>
       <c r="L6" t="n">
         <v>159397.325116146</v>
@@ -26558,10 +26560,10 @@
         <v>159397.325116146</v>
       </c>
       <c r="O6" t="n">
-        <v>152792.1707577127</v>
+        <v>159397.3251161461</v>
       </c>
       <c r="P6" t="n">
-        <v>152792.1707577128</v>
+        <v>159397.3251161461</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>369.7280787229759</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>241.1586658756091</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.1459394241614</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,16 +27514,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>88.42461618073978</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>143.8063522682658</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>232.8297551232354</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>92.46572744736824</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>166.1966007716306</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>237.8052177150865</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>115.4129376317904</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>86.21436345804257</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,19 +27988,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35650,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>127.1185794980172</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38023,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
-        <v>197.2140931478448</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187098.030886826</v>
+        <v>1118246.734445389</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404856</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6287775.425770479</v>
+        <v>6287775.42577048</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.00576294050474</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96.13285199009043</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>104.2079243326491</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>85.49838238928905</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.12024601807692</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>204.4397854120483</v>
       </c>
     </row>
     <row r="10">
@@ -1296,67 +1296,67 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>11.19305615617957</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>99.24815076615347</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.583694061602047</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1864,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>45.73582210352228</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>24.88156537268685</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>23.81301614990503</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>63.1601700331929</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2414,13 +2414,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>116.7084106560069</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.6677505121453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,20 +2794,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>4.122280040031055</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>185.6312597262254</v>
       </c>
     </row>
     <row r="34">
@@ -3265,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>6.653253669482772</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,22 +3353,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>41.60546776660162</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>76.04701294868005</v>
       </c>
     </row>
     <row r="40">
@@ -3678,43 +3678,43 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>9.234466016111835</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3796,19 +3796,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>82.71243518046262</v>
+        <v>124.906780124857</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3912,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>32.03583563884507</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,67 +4137,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4336,46 +4336,46 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9439968277793</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.89093722176946</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4436,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3871215328157</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>157.2481263983281</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>102.0122617372887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>584.5057085574531</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>125.2958053919369</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>315.6850394389064</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>72.23626279480629</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4913,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>279.432186667424</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>71.67188790247008</v>
+        <v>482.9654477646471</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5147,19 +5147,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5229,22 +5229,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5308,22 +5308,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>787.171420448546</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C15" t="n">
-        <v>612.718391167419</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D15" t="n">
-        <v>463.7839815061678</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E15" t="n">
-        <v>304.5465265007123</v>
+        <v>120.2859331025474</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>955.386757468614</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>955.386757468614</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>955.386757468614</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>955.386757468614</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>955.386757468614</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>955.386757468614</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>955.386757468614</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y15" t="n">
-        <v>955.386757468614</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5469,19 +5469,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>703.7721529630483</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C18" t="n">
-        <v>703.7721529630483</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D18" t="n">
-        <v>554.837743301797</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="E18" t="n">
-        <v>395.6002882963414</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F18" t="n">
-        <v>249.0657303232264</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>938.9242611947909</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>938.9242611947909</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>938.9242611947909</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>938.9242611947909</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>703.7721529630483</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W18" t="n">
-        <v>703.7721529630483</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X18" t="n">
-        <v>703.7721529630483</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y18" t="n">
-        <v>703.7721529630483</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="19">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5867,16 +5867,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>787.171420448546</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C24" t="n">
-        <v>612.718391167419</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>955.386757468614</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>955.386757468614</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6262,10 +6262,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
         <v>749.627473042513</v>
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>571.5829980232747</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>571.5829980232747</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>336.430889791532</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.44506234256733</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W30" t="n">
-        <v>399.5118995681682</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>191.6603993626354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>191.6603993626354</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6645,22 +6645,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
@@ -6691,7 +6691,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>862.8876260635219</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y33" t="n">
-        <v>862.8876260635219</v>
+        <v>258.5151819143075</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D35" t="n">
-        <v>72.23626279480629</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E35" t="n">
-        <v>72.23626279480629</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>414.6641751762832</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C36" t="n">
-        <v>414.6641751762832</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D36" t="n">
-        <v>265.7297655150319</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>265.7297655150319</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>265.7297655150319</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>582.8795121963512</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7122,16 +7122,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7493,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>577.1531170985884</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V42" t="n">
-        <v>577.1531170985884</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W42" t="n">
-        <v>577.1531170985884</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>200.5749827096913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>51.64057304844007</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>51.64057304844007</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>51.64057304844007</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>51.64057304844007</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>51.64057304844007</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7730,10 +7730,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
         <v>304.2053859195205</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W45" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X45" t="n">
-        <v>582.7883107557723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
@@ -7993,10 +7993,10 @@
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,10 +9254,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5053919605859</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.82106162723041</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.57414009104109</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23752,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>111.9092583518787</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.27626877995628</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>391.48972136523</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24028,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.77514371154889</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24107,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>275.320613684763</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>109.5483289551228</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24302,13 +24302,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>197.1892911418754</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4980740029173</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24460,7 +24460,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24502,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>83.45631803881473</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.01494526515904</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>168.5862189482847</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>20.05143605107898</v>
       </c>
     </row>
     <row r="34">
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150652</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>159.8799299803846</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,22 +25241,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>95.73804939660901</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,16 +25393,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>129.6356828286243</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>372.69590405615</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25715,16 +25715,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.2289469005122</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>57.36079721257001</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>407331.8274820518</v>
+        <v>407331.8274820519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407331.8274820517</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>407331.8274820519</v>
+        <v>407331.8274820518</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="F2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26346,16 +26346,16 @@
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
+        <v>207700.8406641655</v>
+      </c>
+      <c r="P2" t="n">
         <v>207700.8406641654</v>
-      </c>
-      <c r="P2" t="n">
-        <v>207700.8406641655</v>
       </c>
     </row>
     <row r="3">
@@ -26456,7 +26456,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="P4" t="n">
         <v>33649.84678425771</v>
@@ -26524,46 +26524,46 @@
         <v>104265.4640008131</v>
       </c>
       <c r="C6" t="n">
-        <v>91698.14079603</v>
+        <v>91698.14079603011</v>
       </c>
       <c r="D6" t="n">
-        <v>152274.4629826981</v>
+        <v>152274.4629826982</v>
       </c>
       <c r="E6" t="n">
-        <v>159397.3251161461</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="F6" t="n">
-        <v>159397.325116146</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="G6" t="n">
-        <v>159397.325116146</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="H6" t="n">
-        <v>159397.325116146</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="I6" t="n">
-        <v>159397.325116146</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="J6" t="n">
-        <v>145396.0929758667</v>
+        <v>133178.0823558263</v>
       </c>
       <c r="K6" t="n">
-        <v>111140.3721825134</v>
+        <v>98922.36156247294</v>
       </c>
       <c r="L6" t="n">
-        <v>159397.325116146</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="M6" t="n">
-        <v>159397.3251161461</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="N6" t="n">
-        <v>159397.325116146</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="O6" t="n">
-        <v>159397.3251161461</v>
+        <v>147179.3144961056</v>
       </c>
       <c r="P6" t="n">
-        <v>159397.3251161461</v>
+        <v>147179.3144961056</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369.7280787229759</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>324.737194744175</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.1459394241614</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>124.5493355518741</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>143.8063522682658</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>95.1029440082626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.92143363661941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>222.8456210324931</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192.3884445891958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,10 +27703,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>40.86128806073476</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>166.1966007716306</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>122.3993850387443</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.4129376317904</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.242910365256108</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
@@ -34713,10 +34713,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,10 +35974,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9091475161414</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
